--- a/inst/extdata/toyFiles/ROC/roc2.xlsx
+++ b/inst/extdata/toyFiles/ROC/roc2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/ROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41490F0E-181E-014C-BB11-42323716C87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BFC905-0061-344C-952A-26D897661E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="7180" windowWidth="15420" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16360" yWindow="5820" windowWidth="15420" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="24">
   <si>
     <t>CaseID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>TP_Rating</t>
   </si>
   <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -99,6 +96,15 @@
   </si>
   <si>
     <t>83</t>
+  </si>
+  <si>
+    <t>0,1,2,5</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>2.06</t>
   </si>
 </sst>
 </file>
@@ -106,9 +112,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -128,6 +134,13 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,7 +214,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,10 +223,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -601,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -640,13 +656,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>5.72</v>
+        <v>4.72</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -660,13 +676,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>3.21</v>
+        <v>2.21</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -680,13 +696,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>6.44</v>
+        <v>5.44</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -700,13 +716,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>5.34</v>
+        <v>4.34</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -720,13 +736,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -740,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -760,13 +776,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -780,13 +796,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>5.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -800,13 +816,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>5.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -820,13 +836,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>5.57</v>
+        <v>4.57</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -840,13 +856,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>4.41</v>
+        <v>3.41</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -860,13 +876,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="4">
-        <v>4.29</v>
+        <v>3.29</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -874,99 +890,95 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E14" s="4">
-        <v>5.52</v>
+        <v>0.77</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E15" s="4">
-        <v>4.7699999999999996</v>
+        <v>0.36</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E16" s="4">
-        <v>5.27</v>
+        <v>2.73</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E17" s="4">
-        <v>5.33</v>
+        <v>1.32</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>3.3</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -974,19 +986,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <v>4.5199999999999996</v>
+        <v>3.7699999999999996</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -994,19 +1006,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <v>5.65</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1014,19 +1026,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="4">
-        <v>5.19</v>
+        <v>4.33</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1034,19 +1046,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="4">
-        <v>4.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1054,19 +1066,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="4">
-        <v>3.55</v>
+        <v>3.5199999999999996</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1074,19 +1086,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="4">
-        <v>5.44</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -1094,29 +1106,181 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="4">
-        <v>5.7</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="H33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:B2 A3:B5 A7:B9 A12:B13 B6 B10 B11 B17:B25" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B2 A3:B5 A7:B9 A12:B13 B6 B10 B11 B21:B29" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1128,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1164,10 +1328,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>1.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1181,10 +1345,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>1.86</v>
+        <v>2.8600000000000003</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1198,10 +1362,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>1.74</v>
+        <v>2.74</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1215,10 +1379,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1232,10 +1396,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
-        <v>1.78</v>
+        <v>2.7800000000000002</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1249,10 +1413,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>2.5099999999999998</v>
+        <v>3.51</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1266,10 +1430,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>2.2200000000000002</v>
+        <v>3.22</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1283,10 +1447,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>2.11</v>
+        <v>3.11</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1300,10 +1464,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
-        <v>2.12</v>
+        <v>3.12</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1311,16 +1475,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>2.96</v>
+        <v>1.85</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1328,16 +1492,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>2.79</v>
+        <v>2.34</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1345,16 +1509,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.47</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1362,16 +1526,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
-        <v>3.32</v>
+        <v>3.96</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1379,16 +1543,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
-        <v>3.41</v>
+        <v>3.79</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1396,16 +1560,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.47</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1413,16 +1577,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>2.3199999999999998</v>
+        <v>4.32</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1430,16 +1594,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>0.19</v>
+        <v>4.41</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1447,26 +1611,122 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>0.55000000000000004</v>
+        <v>3.22</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.32</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="A2 B2 A3:A5 B3:B5 A6:A10 B6:B13 B14:B17" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B10 B14:B20" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1481,7 +1741,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1510,12 +1770,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1524,18 +1784,18 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1544,18 +1804,18 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1564,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1582,16 +1842,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1600,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1618,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1636,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F8" s="2"/>
     </row>
